--- a/FrameWork.xlsx
+++ b/FrameWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EBAE11C-A942-465F-A1AD-7CF601ED6089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D7ADF0-646C-496A-81B0-908FC3DB8A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3F5AE948-451C-44A0-90F2-AF9DA9663EF4}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{3F5AE948-451C-44A0-90F2-AF9DA9663EF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Student ID</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>kk</t>
+  </si>
+  <si>
+    <t>kjlk</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E9CDF8-9408-4FA0-BD54-702FD0D8FD67}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,6 +493,20 @@
         <v>44403</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>35365</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>8422458254</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44387</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
